--- a/docs/Simple/templates/PersonGroup.xlsx
+++ b/docs/Simple/templates/PersonGroup.xlsx
@@ -197,37 +197,37 @@
     </row>
     <row r="5">
       <c r="F5" s="0">
-        <f><![CDATA["INSERT INTO """&B$1&""" ("&K5&") VALUES ("&P5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&B$1&""" ("&K5&") VALUES ("&P5&");" ]]></f>
       </c>
       <c r="G5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="H5">
-        <f><![CDATA[G5&IF(AND(G5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  G5&IF(AND(G5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="I5">
-        <f><![CDATA[H5&IF(AND(H5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  H5&IF(AND(H5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="J5">
-        <f><![CDATA[I5&IF(AND(I5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","")]]></f>
+        <f><![CDATA[  I5&IF(AND(I5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
       </c>
       <c r="K5">
-        <f><![CDATA[J5&IF(AND(J5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","")]]></f>
+        <f><![CDATA[  J5&IF(AND(J5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
       </c>
       <c r="L5">
         <f>IF(A5&lt;&gt;"",A5,"")</f>
       </c>
       <c r="M5">
-        <f><![CDATA[L5&IF(AND(L5<>"",B5<>""),", ","")&IF(B5<>"","'"&B5&"'","")]]></f>
+        <f><![CDATA[  L5&IF(AND(L5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
       </c>
       <c r="N5">
-        <f><![CDATA[M5&IF(AND(M5<>"",C5<>""),", ","")&IF(C5<>"","'"&C5&"'","")]]></f>
+        <f><![CDATA[  M5&IF(AND(M5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
       </c>
       <c r="O5">
-        <f><![CDATA[N5&IF(AND(N5<>"",D5<>""),", ","")&IF(D5<>"","'"&D5&"'","")]]></f>
+        <f><![CDATA[  N5&IF(AND(N5<>"",D5<>""),", ","")&IF(D5<>"", "'"&D5&"'" ,"") ]]></f>
       </c>
       <c r="P5">
-        <f><![CDATA[O5&IF(AND(O5<>"",E5<>""),", ","")&IF(E5<>"","'"&TEXT(E5,"YYYY-MM-DD")&" "&TEXT(E5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  O5&IF(AND(O5<>"",E5<>""),", ","")&IF(E5<>"", "'"&TEXT(E5,"YYYY-MM-DD")&" "&TEXT(E5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -301,31 +301,31 @@
     </row>
     <row r="5">
       <c r="E5" s="0">
-        <f><![CDATA["INSERT INTO """&B$1&""" ("&I5&") VALUES ("&M5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&B$1&""" ("&I5&") VALUES ("&M5&");" ]]></f>
       </c>
       <c r="F5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="G5">
-        <f><![CDATA[F5&IF(AND(F5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  F5&IF(AND(F5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="H5">
-        <f><![CDATA[G5&IF(AND(G5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  G5&IF(AND(G5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="I5">
-        <f><![CDATA[H5&IF(AND(H5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","")]]></f>
+        <f><![CDATA[  H5&IF(AND(H5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
       </c>
       <c r="J5">
         <f>IF(A5&lt;&gt;"",A5,"")</f>
       </c>
       <c r="K5">
-        <f><![CDATA[J5&IF(AND(J5<>"",B5<>""),", ","")&IF(B5<>"","'"&B5&"'","")]]></f>
+        <f><![CDATA[  J5&IF(AND(J5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
       </c>
       <c r="L5">
-        <f><![CDATA[K5&IF(AND(K5<>"",C5<>""),", ","")&IF(C5<>"","'"&C5&"'","")]]></f>
+        <f><![CDATA[  K5&IF(AND(K5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
       </c>
       <c r="M5">
-        <f><![CDATA[L5&IF(AND(L5<>"",D5<>""),", ","")&IF(D5<>"","'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  L5&IF(AND(L5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -408,37 +408,37 @@
     </row>
     <row r="5">
       <c r="F5" s="0">
-        <f><![CDATA["INSERT INTO """&B$1&""" ("&K5&") VALUES ("&P5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&B$1&""" ("&K5&") VALUES ("&P5&");" ]]></f>
       </c>
       <c r="G5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="H5">
-        <f><![CDATA[G5&IF(AND(G5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  G5&IF(AND(G5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="I5">
-        <f><![CDATA[H5&IF(AND(H5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  H5&IF(AND(H5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="J5">
-        <f><![CDATA[I5&IF(AND(I5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","")]]></f>
+        <f><![CDATA[  I5&IF(AND(I5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
       </c>
       <c r="K5">
-        <f><![CDATA[J5&IF(AND(J5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","")]]></f>
+        <f><![CDATA[  J5&IF(AND(J5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
       </c>
       <c r="L5">
         <f>IF(A5&lt;&gt;"",A5,"")</f>
       </c>
       <c r="M5">
-        <f>L5&amp;IF(AND(L5&lt;&gt;"",B5&lt;&gt;""),", ","")&amp;IF(B5&lt;&gt;"",B5,"")</f>
+        <f>  L5&amp;IF(AND(L5&lt;&gt;"",B5&lt;&gt;""),", ","")&amp;IF(B5&lt;&gt;"",B5,"") </f>
       </c>
       <c r="N5">
-        <f>M5&amp;IF(AND(M5&lt;&gt;"",C5&lt;&gt;""),", ","")&amp;IF(C5&lt;&gt;"",C5,"")</f>
+        <f>  M5&amp;IF(AND(M5&lt;&gt;"",C5&lt;&gt;""),", ","")&amp;IF(C5&lt;&gt;"",C5,"") </f>
       </c>
       <c r="O5">
-        <f><![CDATA[N5&IF(AND(N5<>"",D5<>""),", ","")&IF(D5<>"","'"&D5&"'","")]]></f>
+        <f><![CDATA[  N5&IF(AND(N5<>"",D5<>""),", ","")&IF(D5<>"", "'"&D5&"'" ,"") ]]></f>
       </c>
       <c r="P5">
-        <f><![CDATA[O5&IF(AND(O5<>"",E5<>""),", ","")&IF(E5<>"","'"&TEXT(E5,"YYYY-MM-DD")&" "&TEXT(E5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  O5&IF(AND(O5<>"",E5<>""),", ","")&IF(E5<>"", "'"&TEXT(E5,"YYYY-MM-DD")&" "&TEXT(E5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>

--- a/docs/Simple/templates/PersonGroup.xlsx
+++ b/docs/Simple/templates/PersonGroup.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
   <si>
     <t/>
   </si>
@@ -25,27 +25,42 @@
     <t>Person</t>
   </si>
   <si>
+    <t>Person Id</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
     <t>integer, PK, NN, INC</t>
   </si>
   <si>
+    <t>Person first name</t>
+  </si>
+  <si>
     <t>firstname</t>
   </si>
   <si>
     <t>varchar(40), NN</t>
   </si>
   <si>
+    <t>Person last name</t>
+  </si>
+  <si>
     <t>lastname</t>
   </si>
   <si>
+    <t>User updated record</t>
+  </si>
+  <si>
     <t>updated_by</t>
   </si>
   <si>
     <t>varchar(20), NN</t>
   </si>
   <si>
+    <t>Timestamp of record update</t>
+  </si>
+  <si>
     <t>updated_at</t>
   </si>
   <si>
@@ -61,6 +76,12 @@
     <t>Group</t>
   </si>
   <si>
+    <t>Group Id</t>
+  </si>
+  <si>
+    <t>Group name</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -71,6 +92,9 @@
   </si>
   <si>
     <t>Group member</t>
+  </si>
+  <si>
+    <t>Group member id</t>
   </si>
   <si>
     <t>group_id</t>
@@ -124,7 +148,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -158,7 +182,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -166,16 +190,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -183,51 +207,68 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
-      <c r="F5" s="0">
-        <f><![CDATA["INSERT INTO """&B$1&""" ("&K5&") VALUES ("&P5&");" ]]></f>
-      </c>
-      <c r="G5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="H5">
-        <f><![CDATA[  G5&IF(AND(G5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="I5">
-        <f><![CDATA[  H5&IF(AND(H5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="J5">
-        <f><![CDATA[  I5&IF(AND(I5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
-      </c>
-      <c r="K5">
-        <f><![CDATA[  J5&IF(AND(J5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
-      </c>
-      <c r="L5">
-        <f>IF(A5&lt;&gt;"",A5,"")</f>
-      </c>
-      <c r="M5">
-        <f><![CDATA[  L5&IF(AND(L5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
-      </c>
-      <c r="N5">
-        <f><![CDATA[  M5&IF(AND(M5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
-      </c>
-      <c r="O5">
-        <f><![CDATA[  N5&IF(AND(N5<>"",D5<>""),", ","")&IF(D5<>"", "'"&D5&"'" ,"") ]]></f>
-      </c>
-      <c r="P5">
-        <f><![CDATA[  O5&IF(AND(O5<>"",E5<>""),", ","")&IF(E5<>"", "'"&TEXT(E5,"YYYY-MM-DD")&" "&TEXT(E5,"HH:mm:ss")&"'" ,"") ]]></f>
+      <c r="A5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="F6" s="0">
+        <f><![CDATA["INSERT INTO """&B$1&""" ("&K6&") VALUES ("&P6&");" ]]></f>
+      </c>
+      <c r="G6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="H6">
+        <f><![CDATA[  G6&IF(AND(G6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="I6">
+        <f><![CDATA[  H6&IF(AND(H6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="J6">
+        <f><![CDATA[  I6&IF(AND(I6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="K6">
+        <f><![CDATA[  J6&IF(AND(J6<>"",E6<>""),", ","")&IF(E6<>"",""""&E$4&"""","") ]]></f>
+      </c>
+      <c r="L6">
+        <f>IF(A6&lt;&gt;"",A6,"")</f>
+      </c>
+      <c r="M6">
+        <f><![CDATA[  L6&IF(AND(L6<>"",B6<>""),", ","")&IF(B6<>"", "'"&B6&"'" ,"") ]]></f>
+      </c>
+      <c r="N6">
+        <f><![CDATA[  M6&IF(AND(M6<>"",C6<>""),", ","")&IF(C6<>"", "'"&C6&"'" ,"") ]]></f>
+      </c>
+      <c r="O6">
+        <f><![CDATA[  N6&IF(AND(N6<>"",D6<>""),", ","")&IF(D6<>"", "'"&D6&"'" ,"") ]]></f>
+      </c>
+      <c r="P6">
+        <f><![CDATA[  O6&IF(AND(O6<>"",E6<>""),", ","")&IF(E6<>"", "'"&TEXT(E6,"YYYY-MM-DD")&" "&TEXT(E6,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -237,7 +278,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -248,10 +289,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -268,21 +309,21 @@
         <v>0</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -290,42 +331,56 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="E5" s="0">
-        <f><![CDATA["INSERT INTO """&B$1&""" ("&I5&") VALUES ("&M5&");" ]]></f>
-      </c>
-      <c r="F5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="G5">
-        <f><![CDATA[  F5&IF(AND(F5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="H5">
-        <f><![CDATA[  G5&IF(AND(G5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="I5">
-        <f><![CDATA[  H5&IF(AND(H5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
-      </c>
-      <c r="J5">
-        <f>IF(A5&lt;&gt;"",A5,"")</f>
-      </c>
-      <c r="K5">
-        <f><![CDATA[  J5&IF(AND(J5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
-      </c>
-      <c r="L5">
-        <f><![CDATA[  K5&IF(AND(K5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
-      </c>
-      <c r="M5">
-        <f><![CDATA[  L5&IF(AND(L5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'" ,"") ]]></f>
+    </row>
+    <row r="6">
+      <c r="E6" s="0">
+        <f><![CDATA["INSERT INTO """&B$1&""" ("&I6&") VALUES ("&M6&");" ]]></f>
+      </c>
+      <c r="F6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="G6">
+        <f><![CDATA[  F6&IF(AND(F6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="H6">
+        <f><![CDATA[  G6&IF(AND(G6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="I6">
+        <f><![CDATA[  H6&IF(AND(H6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="J6">
+        <f>IF(A6&lt;&gt;"",A6,"")</f>
+      </c>
+      <c r="K6">
+        <f><![CDATA[  J6&IF(AND(J6<>"",B6<>""),", ","")&IF(B6<>"", "'"&B6&"'" ,"") ]]></f>
+      </c>
+      <c r="L6">
+        <f><![CDATA[  K6&IF(AND(K6<>"",C6<>""),", ","")&IF(C6<>"", "'"&C6&"'" ,"") ]]></f>
+      </c>
+      <c r="M6">
+        <f><![CDATA[  L6&IF(AND(L6<>"",D6<>""),", ","")&IF(D6<>"", "'"&TEXT(D6,"YYYY-MM-DD")&" "&TEXT(D6,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -335,7 +390,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -346,10 +401,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
@@ -369,24 +424,24 @@
         <v>0</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>21</v>
-      </c>
       <c r="D3" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -394,51 +449,68 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
-      <c r="F5" s="0">
-        <f><![CDATA["INSERT INTO """&B$1&""" ("&K5&") VALUES ("&P5&");" ]]></f>
-      </c>
-      <c r="G5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="H5">
-        <f><![CDATA[  G5&IF(AND(G5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="I5">
-        <f><![CDATA[  H5&IF(AND(H5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="J5">
-        <f><![CDATA[  I5&IF(AND(I5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
-      </c>
-      <c r="K5">
-        <f><![CDATA[  J5&IF(AND(J5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
-      </c>
-      <c r="L5">
-        <f>IF(A5&lt;&gt;"",A5,"")</f>
-      </c>
-      <c r="M5">
-        <f>  L5&amp;IF(AND(L5&lt;&gt;"",B5&lt;&gt;""),", ","")&amp;IF(B5&lt;&gt;"",B5,"") </f>
-      </c>
-      <c r="N5">
-        <f>  M5&amp;IF(AND(M5&lt;&gt;"",C5&lt;&gt;""),", ","")&amp;IF(C5&lt;&gt;"",C5,"") </f>
-      </c>
-      <c r="O5">
-        <f><![CDATA[  N5&IF(AND(N5<>"",D5<>""),", ","")&IF(D5<>"", "'"&D5&"'" ,"") ]]></f>
-      </c>
-      <c r="P5">
-        <f><![CDATA[  O5&IF(AND(O5<>"",E5<>""),", ","")&IF(E5<>"", "'"&TEXT(E5,"YYYY-MM-DD")&" "&TEXT(E5,"HH:mm:ss")&"'" ,"") ]]></f>
+      <c r="A5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="F6" s="0">
+        <f><![CDATA["INSERT INTO """&B$1&""" ("&K6&") VALUES ("&P6&");" ]]></f>
+      </c>
+      <c r="G6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="H6">
+        <f><![CDATA[  G6&IF(AND(G6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="I6">
+        <f><![CDATA[  H6&IF(AND(H6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="J6">
+        <f><![CDATA[  I6&IF(AND(I6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="K6">
+        <f><![CDATA[  J6&IF(AND(J6<>"",E6<>""),", ","")&IF(E6<>"",""""&E$4&"""","") ]]></f>
+      </c>
+      <c r="L6">
+        <f>IF(A6&lt;&gt;"",A6,"")</f>
+      </c>
+      <c r="M6">
+        <f>  L6&amp;IF(AND(L6&lt;&gt;"",B6&lt;&gt;""),", ","")&amp;IF(B6&lt;&gt;"",B6,"") </f>
+      </c>
+      <c r="N6">
+        <f>  M6&amp;IF(AND(M6&lt;&gt;"",C6&lt;&gt;""),", ","")&amp;IF(C6&lt;&gt;"",C6,"") </f>
+      </c>
+      <c r="O6">
+        <f><![CDATA[  N6&IF(AND(N6<>"",D6<>""),", ","")&IF(D6<>"", "'"&D6&"'" ,"") ]]></f>
+      </c>
+      <c r="P6">
+        <f><![CDATA[  O6&IF(AND(O6<>"",E6<>""),", ","")&IF(E6<>"", "'"&TEXT(E6,"YYYY-MM-DD")&" "&TEXT(E6,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
